--- a/data/trans_orig/IP07A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79117E59-9E88-4592-A008-58BA2F07560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A203B80-C8D9-480A-810D-BC99FC105ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1216F54D-6E8A-4DBC-9685-964748F5E6EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BC06150-5A87-40CC-9C47-CA4F08E00616}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="505">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
@@ -79,22 +79,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>7,93%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>6,67%</t>
+    <t>6,52%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -103,7 +103,7 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,26%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,17%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -124,28 +124,28 @@
     <t>15,09%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -154,28 +154,28 @@
     <t>27,33%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -184,28 +184,28 @@
     <t>53,77%</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>46,49%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
   </si>
   <si>
     <t>50,01%</t>
   </si>
   <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -220,1324 +220,1339 @@
     <t>0,26%</t>
   </si>
   <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
   </si>
   <si>
     <t>50,66%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB688438-1A77-4575-8C4B-A43552577826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B17030-271C-447F-AEFA-F4AAEDA69D94}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2435,10 +2450,10 @@
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2447,13 +2462,13 @@
         <v>4948</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2462,13 +2477,13 @@
         <v>7041</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2498,13 @@
         <v>40978</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -2498,13 +2513,13 @@
         <v>35626</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>116</v>
@@ -2513,13 +2528,13 @@
         <v>76605</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2549,13 @@
         <v>64720</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -2549,13 +2564,13 @@
         <v>46914</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -2564,13 +2579,13 @@
         <v>111634</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2600,13 @@
         <v>128190</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>170</v>
@@ -2600,13 +2615,13 @@
         <v>114673</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -2615,13 +2630,13 @@
         <v>242863</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,7 +2692,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2695,7 +2710,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2704,13 +2719,13 @@
         <v>2217</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2719,13 +2734,13 @@
         <v>2217</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2755,13 @@
         <v>2222</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2755,13 +2770,13 @@
         <v>2319</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2770,13 +2785,13 @@
         <v>4542</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2806,13 @@
         <v>10472</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -2806,13 +2821,13 @@
         <v>6550</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2821,13 +2836,13 @@
         <v>17022</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2857,13 @@
         <v>15923</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -2857,13 +2872,13 @@
         <v>25726</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2872,13 +2887,13 @@
         <v>41650</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2908,13 @@
         <v>31777</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -2908,13 +2923,13 @@
         <v>29399</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -2923,13 +2938,13 @@
         <v>61176</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +3012,13 @@
         <v>3222</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -3012,13 +3027,13 @@
         <v>4173</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3027,13 +3042,13 @@
         <v>7396</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3063,13 @@
         <v>4873</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3063,13 +3078,13 @@
         <v>7267</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3078,13 +3093,13 @@
         <v>12140</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3114,13 @@
         <v>58575</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -3114,13 +3129,13 @@
         <v>55755</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>170</v>
@@ -3129,13 +3144,13 @@
         <v>114330</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3165,13 @@
         <v>93553</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -3165,13 +3180,13 @@
         <v>85521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>270</v>
@@ -3180,13 +3195,13 @@
         <v>179074</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3216,13 @@
         <v>185363</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>247</v>
@@ -3216,13 +3231,13 @@
         <v>167632</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>526</v>
@@ -3231,13 +3246,13 @@
         <v>352996</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,7 +3308,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +3327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51071EC7-D5B1-4BA7-8638-0299E00F3A80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9D810-B5F6-4400-9570-3F066DF1D955}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3436,13 +3451,13 @@
         <v>657</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3451,13 +3466,13 @@
         <v>2231</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3466,13 +3481,13 @@
         <v>2888</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,7 +3508,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3502,13 +3517,13 @@
         <v>627</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3523,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3553,13 @@
         <v>7324</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -3553,13 +3568,13 @@
         <v>8070</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -3568,13 +3583,13 @@
         <v>15395</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3604,13 @@
         <v>8246</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3604,13 +3619,13 @@
         <v>9009</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3619,13 +3634,13 @@
         <v>17255</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3655,13 @@
         <v>29625</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -3655,13 +3670,13 @@
         <v>32428</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>87</v>
@@ -3670,13 +3685,13 @@
         <v>62053</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3759,13 @@
         <v>3449</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3759,13 +3774,13 @@
         <v>5953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3774,13 +3789,13 @@
         <v>9402</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3810,13 @@
         <v>7931</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3810,13 +3825,13 @@
         <v>5486</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -3825,13 +3840,13 @@
         <v>13417</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3861,13 @@
         <v>48811</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -3861,13 +3876,13 @@
         <v>40755</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>127</v>
@@ -3876,13 +3891,13 @@
         <v>89566</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3912,13 @@
         <v>47713</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3912,13 +3927,13 @@
         <v>53649</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3927,13 +3942,13 @@
         <v>101363</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3963,13 @@
         <v>119547</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -3963,13 +3978,13 @@
         <v>100300</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -3978,13 +3993,13 @@
         <v>219847</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,7 +4055,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4052,13 +4067,13 @@
         <v>657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4067,13 +4082,13 @@
         <v>3094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4082,13 +4097,13 @@
         <v>3751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4118,13 @@
         <v>2122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4118,13 +4133,13 @@
         <v>3155</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -4133,13 +4148,13 @@
         <v>5277</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4169,13 @@
         <v>12736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -4169,13 +4184,13 @@
         <v>13780</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4184,13 +4199,13 @@
         <v>26516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4220,13 @@
         <v>12140</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4220,13 +4235,13 @@
         <v>17477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4235,13 +4250,13 @@
         <v>29616</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4271,13 @@
         <v>30278</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -4271,13 +4286,13 @@
         <v>25913</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -4286,13 +4301,13 @@
         <v>56191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4375,13 @@
         <v>4764</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -4375,7 +4390,7 @@
         <v>11278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>314</v>
@@ -4393,10 +4408,10 @@
         <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,10 +4429,10 @@
         <v>318</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -4426,10 +4441,10 @@
         <v>9267</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>321</v>
@@ -4447,7 +4462,7 @@
         <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4477,13 @@
         <v>68871</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>88</v>
@@ -4477,13 +4492,13 @@
         <v>62606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>188</v>
@@ -4492,13 +4507,13 @@
         <v>131476</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4528,13 @@
         <v>68099</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -4528,13 +4543,13 @@
         <v>80134</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>216</v>
@@ -4543,13 +4558,13 @@
         <v>148234</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4579,13 @@
         <v>179450</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>226</v>
@@ -4579,13 +4594,13 @@
         <v>158641</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>484</v>
@@ -4594,13 +4609,13 @@
         <v>338090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,7 +4671,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +4690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5EAF4B-B783-4857-85FB-FE21BF91ADEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AA4D64-465C-49F3-8602-7EE9677143E7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4692,7 +4707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4799,13 +4814,13 @@
         <v>662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4820,7 +4835,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4829,13 +4844,13 @@
         <v>662</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4865,13 @@
         <v>2181</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4865,13 +4880,13 @@
         <v>2377</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4880,13 +4895,13 @@
         <v>4558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4916,13 @@
         <v>5112</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4916,13 +4931,13 @@
         <v>4853</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4931,13 +4946,13 @@
         <v>9965</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4967,13 @@
         <v>8586</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4967,13 +4982,13 @@
         <v>7117</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4982,13 +4997,13 @@
         <v>15703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5018,13 @@
         <v>20097</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -5018,13 +5033,13 @@
         <v>16903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
@@ -5033,13 +5048,13 @@
         <v>37000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5122,13 @@
         <v>8181</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5122,13 +5137,13 @@
         <v>6371</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>395</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5137,13 +5152,13 @@
         <v>14551</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5173,13 @@
         <v>4302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>396</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5173,13 +5188,13 @@
         <v>9652</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>399</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -5188,13 +5203,13 @@
         <v>13954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>401</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,13 +5224,13 @@
         <v>49280</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -5224,13 +5239,13 @@
         <v>42682</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -5239,13 +5254,13 @@
         <v>91962</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5275,13 @@
         <v>67507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -5275,13 +5290,13 @@
         <v>71303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>415</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -5290,13 +5305,13 @@
         <v>138810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5326,13 @@
         <v>117392</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H14" s="7">
         <v>171</v>
@@ -5326,13 +5341,13 @@
         <v>120551</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M14" s="7">
         <v>331</v>
@@ -5341,13 +5356,13 @@
         <v>237943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,7 +5418,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5421,7 +5436,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5430,13 +5445,13 @@
         <v>1270</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5451,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5481,13 @@
         <v>2982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -5481,13 +5496,13 @@
         <v>3448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5496,13 +5511,13 @@
         <v>6429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>439</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5532,13 @@
         <v>17975</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>441</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>443</v>
+        <v>257</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -5568,13 +5583,13 @@
         <v>19206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -5583,13 +5598,13 @@
         <v>22573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -5598,13 +5613,13 @@
         <v>41780</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5634,13 @@
         <v>37898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5634,13 +5649,13 @@
         <v>29295</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -5649,13 +5664,13 @@
         <v>67193</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5738,13 @@
         <v>8843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5738,13 +5753,13 @@
         <v>7641</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>471</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5753,13 +5768,13 @@
         <v>16484</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>60</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5789,13 @@
         <v>9465</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>475</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>473</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -5789,13 +5804,13 @@
         <v>15477</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>476</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>319</v>
+        <v>477</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>15</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -5804,13 +5819,13 @@
         <v>24941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>242</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5840,13 @@
         <v>72367</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>477</v>
+        <v>341</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>98</v>
@@ -5840,13 +5855,13 @@
         <v>65348</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>199</v>
@@ -5855,13 +5870,13 @@
         <v>137714</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5891,13 @@
         <v>95300</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -5891,13 +5906,13 @@
         <v>100993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>492</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>493</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -5906,13 +5921,13 @@
         <v>196293</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>29</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5942,13 @@
         <v>175387</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H26" s="7">
         <v>235</v>
@@ -5942,13 +5957,13 @@
         <v>166749</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M26" s="7">
         <v>475</v>
@@ -5957,13 +5972,13 @@
         <v>342136</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,7 +6034,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A203B80-C8D9-480A-810D-BC99FC105ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7989EFF6-B09B-4350-9C00-DF04F18A39BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BC06150-5A87-40CC-9C47-CA4F08E00616}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CF4D804C-3790-4B64-92A6-5DB8246EDFAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="499">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 47,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,19 +73,19 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>9,24%</t>
   </si>
   <si>
     <t>1,94%</t>
@@ -94,1465 +94,1447 @@
     <t>0,61%</t>
   </si>
   <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>28,35%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>30,5%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B17030-271C-447F-AEFA-F4AAEDA69D94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09077C3-1092-40B3-AD52-C33B4FFE7EFF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2082,10 +2064,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1241</v>
+        <v>654</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2097,10 +2079,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>654</v>
+        <v>1241</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2133,31 +2115,31 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2184,10 +2166,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>7125</v>
+        <v>13579</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2199,10 +2181,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>13579</v>
+        <v>7125</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2235,10 +2217,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>12909</v>
+        <v>12881</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -2250,10 +2232,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>12881</v>
+        <v>12909</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2286,10 +2268,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>25397</v>
+        <v>23560</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -2301,10 +2283,10 @@
         <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7">
-        <v>23560</v>
+        <v>25397</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2337,25 +2319,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -2390,31 +2372,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1981</v>
+        <v>1303</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1981</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1303</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>62</v>
@@ -2441,34 +2423,34 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>2094</v>
+        <v>4948</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>4948</v>
+        <v>2094</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2477,13 +2459,13 @@
         <v>7041</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,34 +2474,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7">
+        <v>35626</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="7">
         <v>62</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>40978</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="7">
-        <v>54</v>
-      </c>
-      <c r="I12" s="7">
-        <v>35626</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>116</v>
@@ -2528,13 +2510,13 @@
         <v>76605</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,34 +2525,34 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
+        <v>71</v>
+      </c>
+      <c r="D13" s="7">
+        <v>46914</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="7">
         <v>98</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>64720</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="7">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7">
-        <v>46914</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -2579,13 +2561,13 @@
         <v>111634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,34 +2576,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>170</v>
+      </c>
+      <c r="D14" s="7">
+        <v>114673</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="7">
         <v>193</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>128190</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="7">
-        <v>170</v>
-      </c>
-      <c r="I14" s="7">
-        <v>114673</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>363</v>
@@ -2630,13 +2612,13 @@
         <v>242863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,25 +2627,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>304</v>
+      </c>
+      <c r="D15" s="7">
+        <v>203463</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>304</v>
-      </c>
-      <c r="I15" s="7">
-        <v>203463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -2692,40 +2674,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2217</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2217</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2734,13 +2716,13 @@
         <v>2217</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,31 +2734,31 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2222</v>
+        <v>2319</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>2319</v>
+        <v>2222</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2785,13 +2767,13 @@
         <v>4542</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,34 +2782,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6550</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="7">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>10472</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6550</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2836,13 +2818,13 @@
         <v>17022</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,34 +2833,34 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7">
+        <v>25726</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="7">
         <v>24</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>15923</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="7">
-        <v>38</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25726</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -2887,13 +2869,13 @@
         <v>41650</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,34 +2884,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>42</v>
+      </c>
+      <c r="D20" s="7">
+        <v>29399</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="7">
         <v>47</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>31777</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="7">
-        <v>42</v>
-      </c>
-      <c r="I20" s="7">
-        <v>29399</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -2938,13 +2920,13 @@
         <v>61176</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,25 +2935,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66212</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66212</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -3006,34 +2988,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4173</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>3222</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4173</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3042,13 +3024,13 @@
         <v>7396</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,34 +3039,34 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7267</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="7">
         <v>7</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>4873</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="7">
-        <v>10</v>
-      </c>
-      <c r="I23" s="7">
-        <v>7267</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -3093,13 +3075,13 @@
         <v>12140</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,34 +3090,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>83</v>
+      </c>
+      <c r="D24" s="7">
+        <v>55755</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="7">
         <v>87</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>58575</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="7">
-        <v>83</v>
-      </c>
-      <c r="I24" s="7">
-        <v>55755</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>170</v>
@@ -3144,13 +3126,13 @@
         <v>114330</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,34 +3141,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>129</v>
+      </c>
+      <c r="D25" s="7">
+        <v>85521</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="7">
         <v>141</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>93553</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="7">
-        <v>129</v>
-      </c>
-      <c r="I25" s="7">
-        <v>85521</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>270</v>
@@ -3195,13 +3177,13 @@
         <v>179074</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,34 +3192,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>247</v>
+      </c>
+      <c r="D26" s="7">
+        <v>167632</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="7">
         <v>279</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>185363</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>247</v>
-      </c>
-      <c r="I26" s="7">
-        <v>167632</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>526</v>
@@ -3246,13 +3228,13 @@
         <v>352996</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,25 +3243,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>475</v>
+      </c>
+      <c r="D27" s="7">
+        <v>320349</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>475</v>
-      </c>
-      <c r="I27" s="7">
-        <v>320349</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -3308,7 +3290,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9D810-B5F6-4400-9570-3F066DF1D955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23D1E6A-3A75-4BD1-A991-C161E0109CEC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3344,7 +3326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3445,25 +3427,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>657</v>
+        <v>2231</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2231</v>
+        <v>657</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>192</v>
@@ -3484,10 +3466,10 @@
         <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,34 +3478,34 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>197</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3532,13 +3514,13 @@
         <v>627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,31 +3532,31 @@
         <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>7324</v>
+        <v>8070</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>8070</v>
+        <v>7324</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -3583,13 +3565,13 @@
         <v>15395</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,34 +3580,34 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9009</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>8246</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="7">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9009</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3634,13 +3616,13 @@
         <v>17255</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,34 +3631,34 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7">
+        <v>32428</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="7">
         <v>41</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>29625</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H8" s="7">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7">
-        <v>32428</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M8" s="7">
         <v>87</v>
@@ -3685,13 +3667,13 @@
         <v>62053</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,25 +3682,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7">
+        <v>52364</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>74</v>
-      </c>
-      <c r="I9" s="7">
-        <v>52364</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -3753,34 +3735,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>3449</v>
+        <v>5953</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5953</v>
+        <v>3449</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3789,13 +3771,13 @@
         <v>9402</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,34 +3786,34 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5486</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="7">
         <v>12</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>7931</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5486</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -3840,13 +3822,13 @@
         <v>13417</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,34 +3837,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>48811</v>
+        <v>40755</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>245</v>
       </c>
       <c r="H12" s="7">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>40755</v>
+        <v>48811</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>246</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M12" s="7">
         <v>127</v>
@@ -3891,13 +3873,13 @@
         <v>89566</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,34 +3888,34 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
+        <v>77</v>
+      </c>
+      <c r="D13" s="7">
+        <v>53649</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="7">
         <v>72</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>47713</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H13" s="7">
-        <v>77</v>
-      </c>
-      <c r="I13" s="7">
-        <v>53649</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3942,13 +3924,13 @@
         <v>101363</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,34 +3939,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>144</v>
+      </c>
+      <c r="D14" s="7">
+        <v>100300</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="7">
         <v>173</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>119547</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H14" s="7">
-        <v>144</v>
-      </c>
-      <c r="I14" s="7">
-        <v>100300</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -3993,13 +3975,13 @@
         <v>219847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,25 +3990,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>295</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206144</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>332</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>227451</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>295</v>
-      </c>
-      <c r="I15" s="7">
-        <v>206144</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -4055,40 +4037,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3094</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>657</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3094</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4097,13 +4079,13 @@
         <v>3751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,34 +4094,34 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3155</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2122</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3155</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -4148,13 +4130,13 @@
         <v>5277</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,34 +4145,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13780</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="7">
         <v>19</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>12736</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H18" s="7">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7">
-        <v>13780</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4199,13 +4181,13 @@
         <v>26516</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,34 +4196,34 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17477</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" s="7">
         <v>18</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>12140</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17477</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4250,13 +4232,13 @@
         <v>29616</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,34 +4247,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7">
+        <v>25913</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="7">
         <v>44</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>30278</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H20" s="7">
-        <v>36</v>
-      </c>
-      <c r="I20" s="7">
-        <v>25913</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -4301,13 +4283,13 @@
         <v>56191</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,25 +4298,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -4369,34 +4351,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7">
+        <v>11278</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="7">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>4764</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H22" s="7">
-        <v>16</v>
-      </c>
-      <c r="I22" s="7">
-        <v>11278</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4405,13 +4387,13 @@
         <v>16042</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,34 +4402,34 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>9267</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="7">
         <v>15</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>10054</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H23" s="7">
-        <v>13</v>
-      </c>
-      <c r="I23" s="7">
-        <v>9267</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -4456,13 +4438,13 @@
         <v>19321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,34 +4453,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>88</v>
+      </c>
+      <c r="D24" s="7">
+        <v>62606</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="7">
         <v>100</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>68871</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="H24" s="7">
-        <v>88</v>
-      </c>
-      <c r="I24" s="7">
-        <v>62606</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>188</v>
@@ -4507,13 +4489,13 @@
         <v>131476</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,34 +4504,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>114</v>
+      </c>
+      <c r="D25" s="7">
+        <v>80134</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H25" s="7">
         <v>102</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>68099</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="H25" s="7">
-        <v>114</v>
-      </c>
-      <c r="I25" s="7">
-        <v>80134</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>216</v>
@@ -4558,13 +4540,13 @@
         <v>148234</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,34 +4555,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>226</v>
+      </c>
+      <c r="D26" s="7">
+        <v>158641</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H26" s="7">
         <v>258</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>179450</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="H26" s="7">
-        <v>226</v>
-      </c>
-      <c r="I26" s="7">
-        <v>158641</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>484</v>
@@ -4609,13 +4591,13 @@
         <v>338090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,25 +4606,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>457</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321926</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>331237</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>457</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321926</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -4671,7 +4653,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +4672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AA4D64-465C-49F3-8602-7EE9677143E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4569D6BB-F5FA-4063-9114-BA9C381FBAE8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4707,7 +4689,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4808,34 +4790,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>662</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4844,13 +4826,13 @@
         <v>662</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,31 +4844,31 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>2181</v>
+        <v>2377</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>2377</v>
+        <v>2181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4895,13 +4877,13 @@
         <v>4558</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,34 +4892,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4853</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5112</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4853</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4946,13 +4928,13 @@
         <v>9965</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,34 +4943,34 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7117</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>8586</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H7" s="7">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7117</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4997,13 +4979,13 @@
         <v>15703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,34 +4994,34 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>16903</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="7">
         <v>28</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>20097</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H8" s="7">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7">
-        <v>16903</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
@@ -5048,13 +5030,13 @@
         <v>37000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,25 +5045,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>56</v>
@@ -5116,34 +5098,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6371</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>8181</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6371</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>395</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -5152,13 +5134,13 @@
         <v>14551</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,34 +5149,34 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9652</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>4302</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9652</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -5203,13 +5185,13 @@
         <v>13954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>398</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,34 +5200,34 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7">
+        <v>42682</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12" s="7">
         <v>68</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>49280</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H12" s="7">
-        <v>64</v>
-      </c>
-      <c r="I12" s="7">
-        <v>42682</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -5254,13 +5236,13 @@
         <v>91962</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,34 +5251,34 @@
         <v>36</v>
       </c>
       <c r="C13" s="7">
+        <v>102</v>
+      </c>
+      <c r="D13" s="7">
+        <v>71303</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H13" s="7">
         <v>92</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>67507</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H13" s="7">
-        <v>102</v>
-      </c>
-      <c r="I13" s="7">
-        <v>71303</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -5305,13 +5287,13 @@
         <v>138810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,34 +5302,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>171</v>
+      </c>
+      <c r="D14" s="7">
+        <v>120551</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H14" s="7">
         <v>160</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>117392</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H14" s="7">
-        <v>171</v>
-      </c>
-      <c r="I14" s="7">
-        <v>120551</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>331</v>
@@ -5356,13 +5338,13 @@
         <v>237943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,25 +5353,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>360</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250559</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="7">
         <v>337</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>246662</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>360</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250559</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>56</v>
@@ -5418,40 +5400,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1270</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1270</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>432</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5460,13 +5442,13 @@
         <v>1270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>434</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,34 +5457,34 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3448</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2982</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3448</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5511,13 +5493,13 @@
         <v>6429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>432</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,31 +5511,31 @@
         <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>17975</v>
+        <v>17812</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>434</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>436</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>17812</v>
+        <v>17975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -5562,13 +5544,13 @@
         <v>35787</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,34 +5559,34 @@
         <v>36</v>
       </c>
       <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
+        <v>22573</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H19" s="7">
         <v>26</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>19206</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H19" s="7">
-        <v>30</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22573</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -5613,13 +5595,13 @@
         <v>41780</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,34 +5610,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7">
+        <v>29295</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H20" s="7">
         <v>52</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>37898</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H20" s="7">
-        <v>41</v>
-      </c>
-      <c r="I20" s="7">
-        <v>29295</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>93</v>
@@ -5664,13 +5646,13 @@
         <v>67193</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,25 +5661,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>56</v>
@@ -5732,34 +5714,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7641</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H22" s="7">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>8843</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H22" s="7">
-        <v>11</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7641</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>463</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5768,13 +5750,13 @@
         <v>16484</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,34 +5765,34 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>15477</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H23" s="7">
         <v>13</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>9465</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H23" s="7">
-        <v>22</v>
-      </c>
-      <c r="I23" s="7">
-        <v>15477</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>477</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>15</v>
+        <v>471</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -5819,13 +5801,13 @@
         <v>24941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>479</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,34 +5816,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="7">
+        <v>98</v>
+      </c>
+      <c r="D24" s="7">
+        <v>65348</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="H24" s="7">
         <v>101</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>72367</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H24" s="7">
-        <v>98</v>
-      </c>
-      <c r="I24" s="7">
-        <v>65348</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M24" s="7">
         <v>199</v>
@@ -5870,13 +5852,13 @@
         <v>137714</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,34 +5867,34 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
+        <v>143</v>
+      </c>
+      <c r="D25" s="7">
+        <v>100993</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H25" s="7">
         <v>130</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>95300</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H25" s="7">
-        <v>143</v>
-      </c>
-      <c r="I25" s="7">
-        <v>100993</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>491</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M25" s="7">
         <v>273</v>
@@ -5921,13 +5903,13 @@
         <v>196293</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,34 +5918,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>235</v>
+      </c>
+      <c r="D26" s="7">
+        <v>166749</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H26" s="7">
         <v>240</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>175387</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H26" s="7">
-        <v>235</v>
-      </c>
-      <c r="I26" s="7">
-        <v>166749</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M26" s="7">
         <v>475</v>
@@ -5972,13 +5954,13 @@
         <v>342136</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,25 +5969,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356208</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7">
         <v>496</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>361361</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356208</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>56</v>
@@ -6034,7 +6016,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
